--- a/Calcs.xlsx
+++ b/Calcs.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nokla\Documents\GitHub\SDDC_R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nokla\Documents\GitHub\MORmod_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BD45FF-4557-475B-86BA-D549BA6F13B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83CF2E6-214C-4D51-889C-4DC123B02F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WindProfile" sheetId="1" r:id="rId1"/>
+    <sheet name="CurveCubic" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Air temperature is measured at approximately 1.5 m above ground</t>
   </si>
@@ -77,18 +78,54 @@
   <si>
     <t>Consider up to 5 stories</t>
   </si>
+  <si>
+    <t>Curve:Cubic,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CoilClgDXEIRRatio_fQFrac,               !- Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0,                                      !- Coefficient1 Constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5.1091,                                 !- Coefficient2 x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -8.5515,                                !- Coefficient3 x**2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.4744,                                 !- Coefficient4 x**3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.7,                                    !- Minimum Value of x {BasedOnField A2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1;                                      !- Maximum Value of x {BasedOnField A2}</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,8 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,6 +168,1122 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Part</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> Load Correlation Curve</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CurveCubic!$E$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>CurveCubic!$D$13:$D$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CurveCubic!$E$13:$E$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.92085419999999951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91808682839999967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91551525119999977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91316631479999977</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91106686560000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90924374999999924</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90772381439999927</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90653390519999988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.905700868799999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9052515515999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90521279999999926</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.9056114603999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90647437920000007</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.90782840279999943</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.90970037760000011</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91211714999999938</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91510556640000029</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.9186924731999988</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92290471679999975</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.92776914359999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.93331259999999894</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9395619323999993</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94654398719999966</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.95428561079999907</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.96281364959999971</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.97215494999999885</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.98233635839999955</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9933847211999991</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0053268847999988</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0181896955999985</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0319999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07F7-4AEC-BE49-94C1897F76D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1424045584"/>
+        <c:axId val="1437784944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1424045584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Part load</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> fraction (dim.)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1437784944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1437784944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial Narrow" panose="020B0606020202030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Performance multiplier (dim.)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1424045584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5.000000000000001E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -228,8 +1384,8 @@
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2637902" cy="509050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -271,6 +1427,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -520,7 +1677,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -584,8 +1741,8 @@
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1486882" cy="509050"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -627,6 +1784,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -877,7 +2035,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -933,6 +2091,91 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>335865</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>148688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E0C84C-748E-4DA6-9ACC-7B11FF54B576}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5288280" y="220980"/>
+          <a:ext cx="4191585" cy="704948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4A001D-8694-45A9-B82C-02BA68A9DC3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1201,7 +2444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -1392,4 +2635,236 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D9E299-A22D-43D6-A71D-DCC0081447EA}">
+  <dimension ref="B2:E43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>0.7</v>
+      </c>
+      <c r="E13">
+        <v>0.92085419999999951</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>0.91808682839999967</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>0.91551525119999977</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>0.91316631479999977</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>0.91106686560000005</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>0.90924374999999924</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>0.90772381439999927</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>0.90653390519999988</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>0.905700868799999</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>0.9052515515999997</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>0.8</v>
+      </c>
+      <c r="E23">
+        <v>0.90521279999999926</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>0.9056114603999994</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>0.90647437920000007</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>0.90782840279999943</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>0.90970037760000011</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>0.91211714999999938</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>0.91510556640000029</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>0.9186924731999988</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>0.92290471679999975</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>0.92776914359999996</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>0.9</v>
+      </c>
+      <c r="E33">
+        <v>0.93331259999999894</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>0.9395619323999993</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>0.94654398719999966</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>0.95428561079999907</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>0.96281364959999971</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>0.97215494999999885</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>0.98233635839999955</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>0.9933847211999991</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>1.0053268847999988</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>1.0181896955999985</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1.0319999999999991</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>